--- a/dicas-excel/Pasta3.xlsx
+++ b/dicas-excel/Pasta3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiago\Desktop\h1.labs\h1.labs\dicas-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F30C9AD-EEE4-4AFA-9729-7A25FA445833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA06DD-91D6-4A6B-B8A5-99FE1F778083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{25BE40A3-9E20-4AFF-86EF-36C0C341D0B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="105" xr2:uid="{25BE40A3-9E20-4AFF-86EF-36C0C341D0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D801E552-6A61-4D92-BCF5-0D917D06FD3D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A60EC24-EC2F-4535-B53B-01B255EEF4AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
